--- a/data/calcs.xlsx
+++ b/data/calcs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/garthstevens/repo/fred-2-poc/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{801E9920-427E-F543-A748-2AF3D3944794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A23DC2-AE38-A642-9E1B-36CD7F20017D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20380" yWindow="5400" windowWidth="28040" windowHeight="17440" xr2:uid="{0166C7EF-8CAB-3548-BF65-7ADE32E55935}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Unit" sheetId="2" r:id="rId2"/>
     <sheet name="Common" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
   <si>
     <t>Common Entitlement</t>
   </si>
@@ -422,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8707CD8-F582-844B-9B53-C5EEE5E36A50}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -438,6 +438,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1">
+        <f>SUM(Unit!C2:C101,Common!C2:C101)+B1</f>
         <v>0.6</v>
       </c>
     </row>

--- a/data/calcs.xlsx
+++ b/data/calcs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/garthstevens/repo/fred-2-poc/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C11FCB-132C-CF4A-B498-473C32EC1499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C02D4DF-AF1B-D74E-9711-A1028B81A451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20380" yWindow="5400" windowWidth="28040" windowHeight="17440" xr2:uid="{0166C7EF-8CAB-3548-BF65-7ADE32E55935}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16120" xr2:uid="{0166C7EF-8CAB-3548-BF65-7ADE32E55935}"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -429,7 +429,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -450,7 +450,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="2">
-        <f>SUM(Unit!D2:D101) + SUM(Common!D2:D101)</f>
+        <f>SUM(Unit!D2:D10001) + SUM(Common!D2:D10001)</f>
         <v>0</v>
       </c>
     </row>
@@ -491,7 +491,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D3">
-        <f t="shared" ref="D3:D66" si="0">B3*C3</f>
+        <f t="shared" ref="D3:D6" si="0">B3*C3</f>
         <v>0</v>
       </c>
     </row>
